--- a/biology/Biologie cellulaire et moléculaire/Thérapie_génique_de_la_rétine_humaine/Thérapie_génique_de_la_rétine_humaine.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Thérapie_génique_de_la_rétine_humaine/Thérapie_génique_de_la_rétine_humaine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9rapie_g%C3%A9nique_de_la_r%C3%A9tine_humaine</t>
+          <t>Thérapie_génique_de_la_rétine_humaine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>La thérapie génique de la rétine est prometteuse dans le traitement de différentes formes de cécité héréditaire et non héréditaire.
-En thérapie génique de la rétine, les vecteurs les plus largement utilisés pour la délivrance de gènes oculaires sont basés sur le virus adéno-associé. Le grand avantage de l'utilisation du virus adéno-associé pour la thérapie génique est qu'il provoque des réponses immunitaires minimales et assure la médiation de l'expression transgénique à long terme dans une variété de types de cellules rétiniennes. Par exemple, les jonctions serrées qui forment la barrière hémato-rétinienne séparent l'espace sous-rétinien de l'approvisionnement en sang, offrant une protection contre les microbes et diminuant la plupart des dommages à médiation immunitaire[1].
+En thérapie génique de la rétine, les vecteurs les plus largement utilisés pour la délivrance de gènes oculaires sont basés sur le virus adéno-associé. Le grand avantage de l'utilisation du virus adéno-associé pour la thérapie génique est qu'il provoque des réponses immunitaires minimales et assure la médiation de l'expression transgénique à long terme dans une variété de types de cellules rétiniennes. Par exemple, les jonctions serrées qui forment la barrière hémato-rétinienne séparent l'espace sous-rétinien de l'approvisionnement en sang, offrant une protection contre les microbes et diminuant la plupart des dommages à médiation immunitaire.
 Rétine
 Thérapie génique
 Rétinite pigmentaire</t>
